--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ITALY.xlsx
@@ -18,9 +18,6 @@
     <sheet name="BTP Infl" sheetId="6" r:id="rId9"/>
     <sheet name="BTP Infl Strip" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondSettlementDate">BTP!$J$6</definedName>
     <definedName name="BondType" localSheetId="2">BTP!$B$2</definedName>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="447">
   <si>
     <t>General Settings</t>
   </si>
@@ -1389,6 +1386,9 @@
   </si>
   <si>
     <t>IT0004957574</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -2095,22 +2095,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2487,9 +2471,8 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -2847,9 +2830,9 @@
     </row>
     <row r="4" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
-      <c r="B4" s="22">
+      <c r="B4" s="22" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(AC8:AD23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>27</v>
+        <v>#NUM!</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -2887,7 +2870,7 @@
     <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(B4)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(B4)</f>
         <v/>
       </c>
       <c r="C5" s="44"/>
@@ -4559,9 +4542,9 @@
     </row>
     <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
-      <c r="B4" s="22">
+      <c r="B4" s="22" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(J8:J89,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>81</v>
+        <v>#NUM!</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -4582,7 +4565,7 @@
     <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(B4)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(B4)</f>
         <v/>
       </c>
       <c r="C5" s="44"/>

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ITALY.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ITALY.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="446">
   <si>
     <t>General Settings</t>
   </si>
@@ -1386,9 +1386,6 @@
   </si>
   <si>
     <t>IT0004957574</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2468,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>446</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -2831,8 +2829,8 @@
     <row r="4" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(AC8:AD23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(AC8:AD23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -2869,9 +2867,9 @@
     </row>
     <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(B4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="23"/>
@@ -4543,8 +4541,8 @@
     <row r="4" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(J8:J89,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(J8:J89,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -4564,9 +4562,9 @@
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(B4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="23"/>
@@ -12929,9 +12927,9 @@
       <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(M8:M89,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
-        <v>82</v>
+      <c r="C4" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(M8:M89,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -12951,9 +12949,9 @@
     <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(C4)</f>
-        <v/>
+      <c r="C5" s="27" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -16919,9 +16917,9 @@
       <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(M8:M58,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>51</v>
+      <c r="C4" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(M8:M58,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -16941,9 +16939,9 @@
     <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(C4)</f>
-        <v/>
+      <c r="C5" s="27" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -19418,9 +19416,9 @@
       <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(M8:M12,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+      <c r="C4" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(M8:M12,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -19437,9 +19435,9 @@
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(C4)</f>
-        <v/>
+      <c r="C5" s="27" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
